--- a/Recycling/Solar PV Installed capacity.xlsx
+++ b/Recycling/Solar PV Installed capacity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10421550_polimi_it/Documents/Documenti/Tesi di laurea/2022-23_WasteMARIO/dMRWIO model/dMRWIO/End of Life/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10608728_polimi_it/Documents/Documenti/GitHub/GreenTechs/Recycling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="8_{F11566C8-0BBB-4686-9C9C-CAB131885CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{069898D9-89FF-4C1D-84FC-2CEC68EDB2D1}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="8_{F11566C8-0BBB-4686-9C9C-CAB131885CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9688342C-6124-4374-A3DF-978A0EFFA03E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RECAP" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="SolarPV_calc" sheetId="3" r:id="rId3"/>
     <sheet name="SolarPV Capacity LUT" sheetId="5" r:id="rId4"/>
     <sheet name="SolarPV" sheetId="2" r:id="rId5"/>
+    <sheet name="Cost_PV" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="131">
   <si>
     <t>Installed renewable electricity capacity (MW) by Region/country/area, Technology and Year</t>
   </si>
@@ -418,6 +419,18 @@
   </si>
   <si>
     <t>Solar Capacity Total</t>
+  </si>
+  <si>
+    <t>USD/kW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost </t>
+  </si>
+  <si>
+    <t>Unit of Measure</t>
+  </si>
+  <si>
+    <t>Capacity</t>
   </si>
 </sst>
 </file>
@@ -984,7 +997,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1006,8 +1019,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="48"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="48" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5336,10 +5348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z25"/>
+  <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:Z5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5630,6 +5642,27 @@
       </c>
       <c r="G25">
         <v>600000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -6587,9 +6620,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58340975-325A-426F-8A7F-9BD7EEC921A0}">
-  <dimension ref="A1:CX7"/>
+  <dimension ref="A1:CX4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="92" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="92" workbookViewId="0">
       <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
@@ -7275,84 +7308,22 @@
       </c>
     </row>
     <row r="4" spans="1:102" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12"/>
-      <c r="AK4" s="12"/>
-      <c r="AL4" s="12"/>
-      <c r="AM4" s="12"/>
-      <c r="AN4" s="12"/>
-      <c r="AO4" s="12"/>
-      <c r="AP4" s="12"/>
-      <c r="AQ4" s="11"/>
-    </row>
-    <row r="5" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="11"/>
-      <c r="AG5" s="11"/>
-      <c r="AH5" s="11"/>
-      <c r="AI5" s="11"/>
-      <c r="AJ5" s="11"/>
-      <c r="AK5" s="11"/>
-      <c r="AL5" s="11"/>
-      <c r="AM5" s="11"/>
-      <c r="AN5" s="11"/>
-      <c r="AO5" s="11"/>
-      <c r="AP5" s="11"/>
-      <c r="AQ5" s="11"/>
-    </row>
-    <row r="6" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="11"/>
-      <c r="AI6" s="11"/>
-      <c r="AJ6" s="11"/>
-      <c r="AK6" s="11"/>
-      <c r="AL6" s="11"/>
-      <c r="AM6" s="11"/>
-      <c r="AN6" s="11"/>
-      <c r="AO6" s="11"/>
-      <c r="AP6" s="11"/>
-      <c r="AQ6" s="11"/>
-    </row>
-    <row r="7" spans="1:102" x14ac:dyDescent="0.25">
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="11"/>
-      <c r="AJ7" s="11"/>
-      <c r="AK7" s="11"/>
-      <c r="AL7" s="11"/>
-      <c r="AM7" s="11"/>
-      <c r="AN7" s="11"/>
-      <c r="AO7" s="11"/>
-      <c r="AP7" s="11"/>
-      <c r="AQ7" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7364,8 +7335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD2F4C5-6EA0-41AE-B9BC-82AC358A52B5}">
   <dimension ref="A1:CW2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:CW2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:CW3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -7676,73 +7647,73 @@
       </c>
     </row>
     <row r="2" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>200.1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>300.36</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>384.99400000000003</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>623.77099999999996</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>1335.364</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
         <v>2315.5070000000001</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2">
         <v>3266.6439999999998</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2">
         <v>5039.6750000000002</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2">
         <v>10457.808000000001</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2">
         <v>16835.294999999998</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2">
         <v>30118.561000000002</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2">
         <v>53564.141000000003</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2">
         <v>71624.134000000005</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2">
         <v>81876.467999999993</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2">
         <v>88780.525999999998</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2">
         <v>97288.99</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2">
         <v>103858.151</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2">
         <v>109983.428</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2">
         <v>119282.533</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T2">
         <v>140056.81099999999</v>
       </c>
-      <c r="U2" s="1">
+      <c r="U2">
         <v>160578.03</v>
       </c>
-      <c r="V2" s="1">
+      <c r="V2">
         <v>188189.033</v>
       </c>
-      <c r="W2" s="1">
+      <c r="W2">
         <v>222957.511</v>
       </c>
       <c r="X2">
@@ -7800,43 +7771,43 @@
         <v>8795379.1831025686</v>
       </c>
       <c r="AP2">
-        <v>8712878.3474355564</v>
+        <v>8795911.3059792668</v>
       </c>
       <c r="AQ2">
-        <v>8630377.5117685422</v>
+        <v>8796443.4288559649</v>
       </c>
       <c r="AR2">
-        <v>8547876.6761015281</v>
+        <v>8796975.5517326631</v>
       </c>
       <c r="AS2">
-        <v>8465375.840434514</v>
+        <v>8797507.6746093612</v>
       </c>
       <c r="AT2">
-        <v>8382875.0047675027</v>
+        <v>8798039.7974860594</v>
       </c>
       <c r="AU2">
-        <v>8405272.4730914887</v>
+        <v>8798571.9203627575</v>
       </c>
       <c r="AV2">
-        <v>8427669.9414154738</v>
+        <v>8799104.0432394557</v>
       </c>
       <c r="AW2">
-        <v>8450067.4097394608</v>
+        <v>8799636.1661161538</v>
       </c>
       <c r="AX2">
-        <v>8472464.8780634478</v>
+        <v>8800168.288992852</v>
       </c>
       <c r="AY2">
-        <v>8494862.3463874329</v>
+        <v>8800700.4118695501</v>
       </c>
       <c r="AZ2">
-        <v>8571853.9856346603</v>
+        <v>8801232.5347462483</v>
       </c>
       <c r="BA2">
-        <v>8648845.6248818878</v>
+        <v>8801764.6576229464</v>
       </c>
       <c r="BB2">
-        <v>8725837.2641291153</v>
+        <v>8802296.7804996446</v>
       </c>
       <c r="BC2">
         <v>8802828.9033763427</v>
@@ -7978,6 +7949,631 @@
       </c>
       <c r="CW2">
         <v>11786765.529495459</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7BCD4D2-F9CF-409E-9460-16CD261A3944}">
+  <dimension ref="A1:CW2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:101" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B1" s="2">
+        <v>2001</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2002</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2003</v>
+      </c>
+      <c r="E1" s="2">
+        <v>2004</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2005</v>
+      </c>
+      <c r="G1" s="2">
+        <v>2006</v>
+      </c>
+      <c r="H1" s="2">
+        <v>2007</v>
+      </c>
+      <c r="I1" s="2">
+        <v>2008</v>
+      </c>
+      <c r="J1" s="2">
+        <v>2009</v>
+      </c>
+      <c r="K1" s="2">
+        <v>2010</v>
+      </c>
+      <c r="L1" s="2">
+        <v>2011</v>
+      </c>
+      <c r="M1" s="2">
+        <v>2012</v>
+      </c>
+      <c r="N1" s="2">
+        <v>2013</v>
+      </c>
+      <c r="O1" s="2">
+        <v>2014</v>
+      </c>
+      <c r="P1" s="2">
+        <v>2015</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>2016</v>
+      </c>
+      <c r="R1" s="2">
+        <v>2017</v>
+      </c>
+      <c r="S1" s="2">
+        <v>2018</v>
+      </c>
+      <c r="T1" s="2">
+        <v>2019</v>
+      </c>
+      <c r="U1" s="2">
+        <v>2020</v>
+      </c>
+      <c r="V1" s="2">
+        <v>2021</v>
+      </c>
+      <c r="W1" s="2">
+        <v>2022</v>
+      </c>
+      <c r="X1" s="2">
+        <v>2023</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>2024</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>2025</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>2026</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>2027</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>2028</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>2029</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>2030</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>2031</v>
+      </c>
+      <c r="AG1" s="2">
+        <v>2032</v>
+      </c>
+      <c r="AH1" s="2">
+        <v>2033</v>
+      </c>
+      <c r="AI1" s="2">
+        <v>2034</v>
+      </c>
+      <c r="AJ1" s="2">
+        <v>2035</v>
+      </c>
+      <c r="AK1" s="2">
+        <v>2036</v>
+      </c>
+      <c r="AL1" s="2">
+        <v>2037</v>
+      </c>
+      <c r="AM1" s="2">
+        <v>2038</v>
+      </c>
+      <c r="AN1" s="2">
+        <v>2039</v>
+      </c>
+      <c r="AO1" s="2">
+        <v>2040</v>
+      </c>
+      <c r="AP1" s="2">
+        <v>2041</v>
+      </c>
+      <c r="AQ1" s="2">
+        <v>2042</v>
+      </c>
+      <c r="AR1" s="2">
+        <v>2043</v>
+      </c>
+      <c r="AS1" s="2">
+        <v>2044</v>
+      </c>
+      <c r="AT1" s="2">
+        <v>2045</v>
+      </c>
+      <c r="AU1" s="2">
+        <v>2046</v>
+      </c>
+      <c r="AV1" s="2">
+        <v>2047</v>
+      </c>
+      <c r="AW1" s="2">
+        <v>2048</v>
+      </c>
+      <c r="AX1" s="2">
+        <v>2049</v>
+      </c>
+      <c r="AY1" s="2">
+        <v>2050</v>
+      </c>
+      <c r="AZ1" s="2">
+        <v>2051</v>
+      </c>
+      <c r="BA1" s="2">
+        <v>2052</v>
+      </c>
+      <c r="BB1" s="2">
+        <v>2053</v>
+      </c>
+      <c r="BC1" s="2">
+        <v>2054</v>
+      </c>
+      <c r="BD1" s="2">
+        <v>2055</v>
+      </c>
+      <c r="BE1" s="2">
+        <v>2056</v>
+      </c>
+      <c r="BF1" s="2">
+        <v>2057</v>
+      </c>
+      <c r="BG1" s="2">
+        <v>2058</v>
+      </c>
+      <c r="BH1" s="2">
+        <v>2059</v>
+      </c>
+      <c r="BI1" s="2">
+        <v>2060</v>
+      </c>
+      <c r="BJ1" s="2">
+        <v>2061</v>
+      </c>
+      <c r="BK1" s="2">
+        <v>2062</v>
+      </c>
+      <c r="BL1" s="2">
+        <v>2063</v>
+      </c>
+      <c r="BM1" s="2">
+        <v>2064</v>
+      </c>
+      <c r="BN1" s="2">
+        <v>2065</v>
+      </c>
+      <c r="BO1" s="2">
+        <v>2066</v>
+      </c>
+      <c r="BP1" s="2">
+        <v>2067</v>
+      </c>
+      <c r="BQ1" s="2">
+        <v>2068</v>
+      </c>
+      <c r="BR1" s="2">
+        <v>2069</v>
+      </c>
+      <c r="BS1" s="2">
+        <v>2070</v>
+      </c>
+      <c r="BT1" s="2">
+        <v>2071</v>
+      </c>
+      <c r="BU1" s="2">
+        <v>2072</v>
+      </c>
+      <c r="BV1" s="2">
+        <v>2073</v>
+      </c>
+      <c r="BW1" s="2">
+        <v>2074</v>
+      </c>
+      <c r="BX1" s="2">
+        <v>2075</v>
+      </c>
+      <c r="BY1" s="2">
+        <v>2076</v>
+      </c>
+      <c r="BZ1" s="2">
+        <v>2077</v>
+      </c>
+      <c r="CA1" s="2">
+        <v>2078</v>
+      </c>
+      <c r="CB1" s="2">
+        <v>2079</v>
+      </c>
+      <c r="CC1" s="2">
+        <v>2080</v>
+      </c>
+      <c r="CD1" s="2">
+        <v>2081</v>
+      </c>
+      <c r="CE1" s="2">
+        <v>2082</v>
+      </c>
+      <c r="CF1" s="2">
+        <v>2083</v>
+      </c>
+      <c r="CG1" s="2">
+        <v>2084</v>
+      </c>
+      <c r="CH1" s="2">
+        <v>2085</v>
+      </c>
+      <c r="CI1" s="2">
+        <v>2086</v>
+      </c>
+      <c r="CJ1" s="2">
+        <v>2087</v>
+      </c>
+      <c r="CK1" s="2">
+        <v>2088</v>
+      </c>
+      <c r="CL1" s="2">
+        <v>2089</v>
+      </c>
+      <c r="CM1" s="2">
+        <v>2090</v>
+      </c>
+      <c r="CN1" s="2">
+        <v>2091</v>
+      </c>
+      <c r="CO1" s="2">
+        <v>2092</v>
+      </c>
+      <c r="CP1" s="2">
+        <v>2093</v>
+      </c>
+      <c r="CQ1" s="2">
+        <v>2094</v>
+      </c>
+      <c r="CR1" s="2">
+        <v>2095</v>
+      </c>
+      <c r="CS1" s="2">
+        <v>2096</v>
+      </c>
+      <c r="CT1" s="2">
+        <v>2097</v>
+      </c>
+      <c r="CU1" s="2">
+        <v>2098</v>
+      </c>
+      <c r="CV1" s="2">
+        <v>2099</v>
+      </c>
+      <c r="CW1" s="2">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4807.8504600440901</v>
+      </c>
+      <c r="B2">
+        <v>4807.8504600440901</v>
+      </c>
+      <c r="C2">
+        <v>4807.8504600440901</v>
+      </c>
+      <c r="D2">
+        <v>4807.8504600440901</v>
+      </c>
+      <c r="E2">
+        <v>4807.8504600440901</v>
+      </c>
+      <c r="F2">
+        <v>4807.8504600440901</v>
+      </c>
+      <c r="G2">
+        <v>4807.8504600440901</v>
+      </c>
+      <c r="H2">
+        <v>4807.8504600440901</v>
+      </c>
+      <c r="I2">
+        <v>4807.8504600440901</v>
+      </c>
+      <c r="J2">
+        <v>4807.8504600440865</v>
+      </c>
+      <c r="K2">
+        <v>4807.8504600440865</v>
+      </c>
+      <c r="L2">
+        <v>4104.0258004043535</v>
+      </c>
+      <c r="M2">
+        <v>3124.4120497662939</v>
+      </c>
+      <c r="N2">
+        <v>2741.9783641134691</v>
+      </c>
+      <c r="O2">
+        <v>2478.4406999036969</v>
+      </c>
+      <c r="P2">
+        <v>1887.4980095309772</v>
+      </c>
+      <c r="Q2">
+        <v>1716.6469895558948</v>
+      </c>
+      <c r="R2">
+        <v>1483.2636558299546</v>
+      </c>
+      <c r="S2">
+        <v>1266.7983233768382</v>
+      </c>
+      <c r="T2">
+        <v>1045.7251578260525</v>
+      </c>
+      <c r="U2">
+        <v>915.98830965093146</v>
+      </c>
+      <c r="V2">
+        <v>856.50502268113712</v>
+      </c>
+      <c r="W2">
+        <v>856.50502268113712</v>
+      </c>
+      <c r="X2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="Y2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="Z2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="AA2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="AB2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="AC2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="AD2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="AE2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="AF2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="AG2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="AH2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="AI2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="AJ2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="AK2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="AL2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="AM2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="AN2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="AO2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="AP2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="AQ2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="AR2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="AS2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="AT2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="AU2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="AV2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="AW2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="AX2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="AY2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="AZ2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="BA2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="BB2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="BC2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="BD2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="BE2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="BF2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="BG2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="BH2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="BI2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="BJ2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="BK2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="BL2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="BM2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="BN2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="BO2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="BP2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="BQ2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="BR2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="BS2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="BT2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="BU2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="BV2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="BW2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="BX2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="BY2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="BZ2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="CA2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="CB2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="CC2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="CD2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="CE2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="CF2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="CG2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="CH2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="CI2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="CJ2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="CK2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="CL2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="CM2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="CN2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="CO2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="CP2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="CQ2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="CR2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="CS2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="CT2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="CU2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="CV2">
+        <v>856.50502268113701</v>
+      </c>
+      <c r="CW2">
+        <v>856.50502268113701</v>
       </c>
     </row>
   </sheetData>

--- a/Recycling/Solar PV Installed capacity.xlsx
+++ b/Recycling/Solar PV Installed capacity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10608728_polimi_it/Documents/Documenti/GitHub/GreenTechs/Recycling/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\OneDrive - Politecnico di Milano\Documenti\GitHub\GreenTechs\Recycling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="8_{F11566C8-0BBB-4686-9C9C-CAB131885CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9688342C-6124-4374-A3DF-978A0EFFA03E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D3729F-06B9-45B4-9F11-12389DFD980C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RECAP" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="132">
   <si>
     <t>Installed renewable electricity capacity (MW) by Region/country/area, Technology and Year</t>
   </si>
@@ -421,9 +421,6 @@
     <t>Solar Capacity Total</t>
   </si>
   <si>
-    <t>USD/kW</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cost </t>
   </si>
   <si>
@@ -431,6 +428,12 @@
   </si>
   <si>
     <t>Capacity</t>
+  </si>
+  <si>
+    <t>MUSD/kW</t>
+  </si>
+  <si>
+    <t>(Million USD)</t>
   </si>
 </sst>
 </file>
@@ -5351,7 +5354,7 @@
   <dimension ref="A1:Z31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:B31"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5646,20 +5649,23 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>128</v>
-      </c>
-      <c r="B30" t="s">
         <v>127</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B31" t="s">
         <v>120</v>
@@ -7335,7 +7341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD2F4C5-6EA0-41AE-B9BC-82AC358A52B5}">
   <dimension ref="A1:CW2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:CW3"/>
     </sheetView>
   </sheetViews>
@@ -7960,8 +7966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7BCD4D2-F9CF-409E-9460-16CD261A3944}">
   <dimension ref="A1:CW2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:CW4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -8273,307 +8279,307 @@
     </row>
     <row r="2" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>4807.8504600440901</v>
+        <v>4.8078504600440903E-3</v>
       </c>
       <c r="B2">
-        <v>4807.8504600440901</v>
+        <v>4.8078504600440903E-3</v>
       </c>
       <c r="C2">
-        <v>4807.8504600440901</v>
+        <v>4.8078504600440903E-3</v>
       </c>
       <c r="D2">
-        <v>4807.8504600440901</v>
+        <v>4.8078504600440903E-3</v>
       </c>
       <c r="E2">
-        <v>4807.8504600440901</v>
+        <v>4.8078504600440903E-3</v>
       </c>
       <c r="F2">
-        <v>4807.8504600440901</v>
+        <v>4.8078504600440903E-3</v>
       </c>
       <c r="G2">
-        <v>4807.8504600440901</v>
+        <v>4.8078504600440903E-3</v>
       </c>
       <c r="H2">
-        <v>4807.8504600440901</v>
+        <v>4.8078504600440903E-3</v>
       </c>
       <c r="I2">
-        <v>4807.8504600440901</v>
+        <v>4.8078504600440903E-3</v>
       </c>
       <c r="J2">
-        <v>4807.8504600440865</v>
+        <v>4.8078504600440868E-3</v>
       </c>
       <c r="K2">
-        <v>4807.8504600440865</v>
+        <v>4.8078504600440868E-3</v>
       </c>
       <c r="L2">
-        <v>4104.0258004043535</v>
+        <v>4.1040258004043538E-3</v>
       </c>
       <c r="M2">
-        <v>3124.4120497662939</v>
+        <v>3.124412049766294E-3</v>
       </c>
       <c r="N2">
-        <v>2741.9783641134691</v>
+        <v>2.7419783641134689E-3</v>
       </c>
       <c r="O2">
-        <v>2478.4406999036969</v>
+        <v>2.4784406999036968E-3</v>
       </c>
       <c r="P2">
-        <v>1887.4980095309772</v>
+        <v>1.8874980095309772E-3</v>
       </c>
       <c r="Q2">
-        <v>1716.6469895558948</v>
+        <v>1.7166469895558947E-3</v>
       </c>
       <c r="R2">
-        <v>1483.2636558299546</v>
+        <v>1.4832636558299547E-3</v>
       </c>
       <c r="S2">
-        <v>1266.7983233768382</v>
+        <v>1.2667983233768383E-3</v>
       </c>
       <c r="T2">
-        <v>1045.7251578260525</v>
+        <v>1.0457251578260525E-3</v>
       </c>
       <c r="U2">
-        <v>915.98830965093146</v>
+        <v>9.1598830965093148E-4</v>
       </c>
       <c r="V2">
-        <v>856.50502268113712</v>
+        <v>8.5650502268113716E-4</v>
       </c>
       <c r="W2">
-        <v>856.50502268113712</v>
+        <v>8.5650502268113716E-4</v>
       </c>
       <c r="X2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="Y2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="Z2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="AA2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="AB2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="AC2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="AD2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="AE2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="AF2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="AG2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="AH2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="AI2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="AJ2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="AK2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="AL2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="AM2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="AN2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="AO2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="AP2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="AQ2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="AR2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="AS2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="AT2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="AU2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="AV2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="AW2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="AX2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="AY2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="AZ2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="BA2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="BB2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="BC2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="BD2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="BE2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="BF2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="BG2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="BH2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="BI2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="BJ2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="BK2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="BL2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="BM2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="BN2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="BO2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="BP2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="BQ2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="BR2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="BS2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="BT2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="BU2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="BV2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="BW2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="BX2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="BY2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="BZ2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="CA2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="CB2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="CC2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="CD2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="CE2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="CF2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="CG2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="CH2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="CI2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="CJ2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="CK2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="CL2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="CM2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="CN2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="CO2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="CP2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="CQ2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="CR2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="CS2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="CT2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="CU2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="CV2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
       <c r="CW2">
-        <v>856.50502268113701</v>
+        <v>8.5650502268113705E-4</v>
       </c>
     </row>
   </sheetData>
